--- a/biology/Mycologie/Morchella_esculenta/Morchella_esculenta.xlsx
+++ b/biology/Mycologie/Morchella_esculenta/Morchella_esculenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille commune
 Morchella esculenta, la Morille commune, est une espèce de champignons comestibles de la famille des Morchellaceae.
@@ -514,17 +526,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-espèces
-Selon MycoBank                                            (18 janvier 2023)[1] :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Morchella esculenta esculenta
-Morchella esculenta pubescens Pers., 1822
-Formes
-Selon MycoBank                                            (18 janvier 2023)[1] :
+Morchella esculenta pubescens Pers., 1822</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des formes, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Morchella esculenta f. dunensis Castañera, J.L. Alonso &amp; G. Moreno, 1996
 Morchella esculenta f. esculenta
-Morchella esculenta f. sterilis (Picón) Blanco-Dios, 2015
-Variétés
-Selon MycoBank                                            (18 janvier 2023)[1] :
+Morchella esculenta f. sterilis (Picón) Blanco-Dios, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des formes, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (18 janvier 2023) :
 Morchella esculenta var. abietina (Leuba) Sacc. &amp; Trotter
 Morchella esculenta var. aurantiaca Clowez, 2012
 Morchella esculenta var. brunnea Clowez, 2012
@@ -556,31 +641,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Morchella_esculenta</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore.
 Chapeau alvéolé, plus ou moins adné, alvéoles irrégulières, profondes, côtes généralement plus claires, épaisses, de taille moyenne (4 à 10 cm), globuleux, oblong, parfois conique, toujours obtus au sommet.
@@ -596,70 +683,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Morchella_esculenta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Précoce, du mois de mars au mois de mai en France.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Morchella_esculenta</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En plaine et en montagne, sur tous les sols aussi bien lourds que très sablonneux, sur décombres, anciennes places à feu, en lisières ou sous feuillus : 
-fraxinetum : frênes, ormes, noisetiers, peupliers, aubépine, bouleaux, acacias ; et - ce que cette morille commune affectionne tout particulièrement - un tapis de lierre couvrant le sol sous une frênaie ;
-Il semble que ce champignon apprécie les restes de sucres issus de fruits tombés au sol (ex : sous divers fruitiers comme pommiers, poiriers et cerisiers, ou sous certains arbres couverts de miellat de pucerons ; mais on le trouve aussi sous les lilas, pivoines, artichauts, topinambours, luzerne[2] ;
-buxus (buis sur sol calcaire).</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -681,10 +704,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Précoce, du mois de mars au mois de mai en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En plaine et en montagne, sur tous les sols aussi bien lourds que très sablonneux, sur décombres, anciennes places à feu, en lisières ou sous feuillus : 
+fraxinetum : frênes, ormes, noisetiers, peupliers, aubépine, bouleaux, acacias ; et - ce que cette morille commune affectionne tout particulièrement - un tapis de lierre couvrant le sol sous une frênaie ;
+Il semble que ce champignon apprécie les restes de sucres issus de fruits tombés au sol (ex : sous divers fruitiers comme pommiers, poiriers et cerisiers, ou sous certains arbres couverts de miellat de pucerons ; mais on le trouve aussi sous les lilas, pivoines, artichauts, topinambours, luzerne ;
+buxus (buis sur sol calcaire).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_esculenta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible ; toutefois, doit être cuite ou séchée pour éliminer les hémolysines présentes dans le champignon.
 </t>
